--- a/FastReact Confg..xlsx
+++ b/FastReact Confg..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Capacity Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F022A94-4A91-4CC1-9283-4102D1C53902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3696A50E-199F-4C60-AF2A-6A86E8A577F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293FE00B-EC13-46E8-B78F-2F1EC25697CE}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D2" s="7">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -605,10 +605,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="D3" s="7">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="7">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="D4" s="7">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>34</v>
@@ -639,10 +639,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D5" s="7">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
@@ -656,10 +656,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D6" s="7">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D7" s="7">
-        <v>45777</v>
+        <v>45869</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
@@ -690,10 +690,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D8" s="7">
-        <v>45716</v>
+        <v>45808</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
@@ -707,10 +707,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D9" s="7">
-        <v>45716</v>
+        <v>45808</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
@@ -724,10 +724,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D10" s="7">
-        <v>45777</v>
+        <v>45869</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
@@ -741,10 +741,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D11" s="7">
-        <v>45777</v>
+        <v>45869</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -758,10 +758,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="D12" s="7">
-        <v>45777</v>
+        <v>45869</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
@@ -775,10 +775,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="D13" s="7">
-        <v>45688</v>
+        <v>45777</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>33</v>

--- a/FastReact Confg..xlsx
+++ b/FastReact Confg..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Capacity Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3696A50E-199F-4C60-AF2A-6A86E8A577F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAB6C5B-A442-4BE7-A72A-BF6761409BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Report Name</t>
   </si>
@@ -135,10 +135,13 @@
     <t>Reports-Production-Unit Wise Plan Summary-All</t>
   </si>
   <si>
-    <t>Current Month</t>
-  </si>
-  <si>
     <t>Current Month+ 5</t>
+  </si>
+  <si>
+    <t>Unit wise Plan Qty</t>
+  </si>
+  <si>
+    <t>Reports-Planning-Buyer wise plan qty-Unit wise plan qty</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293FE00B-EC13-46E8-B78F-2F1EC25697CE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D2" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -605,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="D3" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -622,13 +625,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="7">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="D4" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -639,10 +642,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D5" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
@@ -656,10 +659,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D6" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
@@ -673,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D7" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
@@ -690,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D8" s="7">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
@@ -707,10 +710,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D9" s="7">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
@@ -724,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D10" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
@@ -741,10 +744,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D11" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -758,10 +761,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D12" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
@@ -775,13 +778,30 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="D13" s="7">
-        <v>45777</v>
+        <v>45838</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45809</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45838</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/FastReact Confg..xlsx
+++ b/FastReact Confg..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Capacity Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAB6C5B-A442-4BE7-A72A-BF6761409BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF6ADE-E341-4081-BFE1-765039C7F57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D2" s="7">
-        <v>45961</v>
+        <v>45991</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -608,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D3" s="7">
-        <v>45961</v>
+        <v>45991</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -625,10 +625,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="7">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D4" s="7">
-        <v>45961</v>
+        <v>45991</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>33</v>
@@ -642,10 +642,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D5" s="7">
-        <v>45961</v>
+        <v>45991</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
@@ -659,10 +659,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D6" s="7">
-        <v>45961</v>
+        <v>45991</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D7" s="7">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
@@ -693,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D8" s="7">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
@@ -710,10 +710,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D9" s="7">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
@@ -727,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D10" s="7">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
@@ -744,10 +744,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D11" s="7">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -761,10 +761,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D12" s="7">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
@@ -778,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D13" s="7">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
@@ -795,10 +795,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D14" s="7">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>21</v>

--- a/FastReact Confg..xlsx
+++ b/FastReact Confg..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Capacity Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF6ADE-E341-4081-BFE1-765039C7F57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6DD8D-7FA3-49EA-88D6-03A2773B3B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
   </bookViews>
@@ -591,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D2" s="7">
-        <v>45991</v>
+        <v>46022</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -608,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D3" s="7">
-        <v>45991</v>
+        <v>46022</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -625,10 +625,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="7">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D4" s="7">
-        <v>45991</v>
+        <v>46022</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>33</v>
@@ -642,10 +642,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D5" s="7">
-        <v>45991</v>
+        <v>46022</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
@@ -659,10 +659,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D6" s="7">
-        <v>45991</v>
+        <v>46022</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D7" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
@@ -693,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D8" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
@@ -710,10 +710,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D9" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
@@ -727,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D10" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
@@ -744,10 +744,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D11" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -761,10 +761,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D12" s="7">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
@@ -778,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D13" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
@@ -795,10 +795,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="7">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D14" s="7">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>21</v>

--- a/FastReact Confg..xlsx
+++ b/FastReact Confg..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Capacity Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\1. Daily\Capacity Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6DD8D-7FA3-49EA-88D6-03A2773B3B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D42481F-E3B1-46F2-B4DF-6867E62358D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Report Name</t>
   </si>
@@ -142,13 +142,16 @@
   </si>
   <si>
     <t>Reports-Planning-Buyer wise plan qty-Unit wise plan qty</t>
+  </si>
+  <si>
+    <t>FastReact planning necessary report configurations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +172,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Playfair Display"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,24 +210,34 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -221,14 +247,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -236,9 +256,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293FE00B-EC13-46E8-B78F-2F1EC25697CE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,250 +594,262 @@
     <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D3" s="9">
+        <v>46053</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
         <v>45870</v>
       </c>
-      <c r="D2" s="7">
-        <v>46022</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D4" s="9">
+        <v>46053</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45870</v>
+      </c>
+      <c r="D5" s="9">
+        <v>46053</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D6" s="9">
+        <v>46053</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45839</v>
-      </c>
-      <c r="D3" s="7">
-        <v>46022</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45839</v>
-      </c>
-      <c r="D4" s="7">
-        <v>46022</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D5" s="7">
-        <v>46022</v>
-      </c>
-      <c r="E5" s="6" t="s">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D7" s="9">
+        <v>46053</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D6" s="7">
-        <v>46022</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D7" s="7">
-        <v>45961</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C8" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45991</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D8" s="7">
-        <v>45900</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C9" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45930</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D9" s="7">
-        <v>45900</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="C10" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D10" s="9">
+        <v>45930</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D10" s="7">
-        <v>45961</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="C11" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D11" s="9">
+        <v>45991</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D11" s="7">
-        <v>45961</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C12" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D12" s="9">
+        <v>45991</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D12" s="7">
-        <v>45961</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C13" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D13" s="9">
+        <v>45991</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D13" s="7">
-        <v>45900</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C14" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D14" s="9">
+        <v>45930</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="7">
-        <v>45870</v>
-      </c>
-      <c r="D14" s="7">
-        <v>45900</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C15" s="9">
+        <v>45901</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45930</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/FastReact Confg..xlsx
+++ b/FastReact Confg..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\1. Daily\Capacity Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D42481F-E3B1-46F2-B4DF-6867E62358D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA270FD3-543C-45FA-A47E-AB7FC03ED2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
   </bookViews>
@@ -237,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -247,9 +247,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -586,7 +583,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,255 +591,255 @@
     <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D3" s="8">
+        <v>46081</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
         <v>45901</v>
       </c>
-      <c r="D3" s="9">
-        <v>46053</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D4" s="8">
+        <v>46081</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45901</v>
+      </c>
+      <c r="D5" s="8">
+        <v>46081</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D6" s="8">
+        <v>46081</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>45870</v>
-      </c>
-      <c r="D4" s="9">
-        <v>46053</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45870</v>
-      </c>
-      <c r="D5" s="9">
-        <v>46053</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D6" s="9">
-        <v>46053</v>
-      </c>
-      <c r="E6" s="10" t="s">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D7" s="8">
+        <v>46081</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D7" s="9">
-        <v>46053</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45991</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D8" s="8">
+        <v>46022</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D9" s="9">
-        <v>45930</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45961</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D10" s="9">
-        <v>45930</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45961</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D11" s="9">
-        <v>45991</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D11" s="8">
+        <v>46022</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D12" s="9">
-        <v>45991</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D12" s="8">
+        <v>46022</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D13" s="9">
-        <v>45991</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D13" s="8">
+        <v>46022</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D14" s="9">
-        <v>45930</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D14" s="8">
+        <v>45961</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="9">
-        <v>45901</v>
-      </c>
-      <c r="D15" s="9">
-        <v>45930</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D15" s="8">
+        <v>45961</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>21</v>
       </c>
     </row>

--- a/FastReact Confg..xlsx
+++ b/FastReact Confg..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\1. Daily\Capacity Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA270FD3-543C-45FA-A47E-AB7FC03ED2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51413C-8D5D-4C49-809B-204983A5B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9AFED8FC-535D-48D6-A46B-931961F691BE}"/>
   </bookViews>
@@ -630,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D3" s="8">
-        <v>46081</v>
+        <v>46234</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>7</v>
@@ -647,10 +647,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>45901</v>
+        <v>46054</v>
       </c>
       <c r="D4" s="8">
-        <v>46081</v>
+        <v>46234</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>30</v>
@@ -664,10 +664,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="8">
-        <v>45901</v>
+        <v>46054</v>
       </c>
       <c r="D5" s="8">
-        <v>46081</v>
+        <v>46234</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>33</v>
@@ -681,10 +681,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D6" s="8">
-        <v>46081</v>
+        <v>46234</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
@@ -698,10 +698,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D7" s="8">
-        <v>46081</v>
+        <v>46234</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>7</v>
@@ -715,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D8" s="8">
-        <v>46022</v>
+        <v>46173</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>18</v>
@@ -732,10 +732,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D9" s="8">
-        <v>45961</v>
+        <v>46112</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>21</v>
@@ -749,10 +749,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D10" s="8">
-        <v>45961</v>
+        <v>46112</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>21</v>
@@ -766,10 +766,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D11" s="8">
-        <v>46022</v>
+        <v>46173</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>18</v>
@@ -783,10 +783,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D12" s="8">
-        <v>46022</v>
+        <v>46173</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>18</v>
@@ -800,10 +800,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D13" s="8">
-        <v>46022</v>
+        <v>46173</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>18</v>
@@ -817,10 +817,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D14" s="8">
-        <v>45961</v>
+        <v>46112</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>21</v>
@@ -834,10 +834,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="8">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="D15" s="8">
-        <v>45961</v>
+        <v>46112</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>21</v>
